--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagaraja\Documents\Projects\JS\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagaraja\Documents\Projects\JS\Automation\Search_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2CC064-9515-4F53-9A5A-3488DB732513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FC341-E0CF-40CB-A394-C62B46EADAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,13 +82,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,14 +387,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="216" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -390,34 +406,34 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagaraja\Documents\Projects\JS\Automation\Search_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FC341-E0CF-40CB-A394-C62B46EADAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74315DE-68CC-49A6-BF83-892E90569112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S No</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Sridar Vembu</t>
+  </si>
+  <si>
+    <t>Sundar Picchai</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="216" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -410,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -418,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -426,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -434,7 +437,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
